--- a/biology/Histoire de la zoologie et de la botanique/Alida_Olbers_Wester/Alida_Olbers_Wester.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Alida_Olbers_Wester/Alida_Olbers_Wester.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alida Olbers, épouse Wester (1842-1912), est une botaniste suédoise. Elle est connue pour ses études de l'anatomie végétale, en particulier de la structure du péricarpe[1],[2],[3],[4]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alida Olbers, épouse Wester (1842-1912), est une botaniste suédoise. Elle est connue pour ses études de l'anatomie végétale, en particulier de la structure du péricarpe
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Écrits</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(sv) Olbers, Alida. (1887). Om fruktväggens byggnad hos Borragineerna, P. A. Norstedt.</t>
         </is>
@@ -541,7 +555,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Mary R. S. Creese et Thomas M. Creese (coll.), Ladies in the Laboratory 2, Scarecrow Press, 2004, 290 p. (lire en ligne), p. 269
 (en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Alida Olbers Wester » (voir la liste des auteurs).</t>
